--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,21 @@
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -67,15 +67,18 @@
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -85,57 +88,69 @@
     <t>great</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>important</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
@@ -145,16 +160,19 @@
     <t>help</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>share</t>
   </si>
   <si>
     <t>sure</t>
@@ -163,6 +181,9 @@
     <t>new</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
@@ -172,25 +193,22 @@
     <t>store</t>
   </si>
   <si>
-    <t>stock</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -551,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -662,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -670,37 +688,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7692307692307693</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C4">
+        <v>184</v>
+      </c>
+      <c r="D4">
+        <v>184</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>108</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -712,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6944444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6404109589041096</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C6">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2965116279069768</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C7">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>363</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,38 +888,38 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2933333333333333</v>
+        <v>0.2965116279069768</v>
       </c>
       <c r="C8">
+        <v>153</v>
+      </c>
+      <c r="D8">
+        <v>153</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>363</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L8">
         <v>22</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>22</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>53</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L8">
-        <v>49</v>
-      </c>
-      <c r="M8">
-        <v>49</v>
-      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -912,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2169312169312169</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -962,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,16 +1009,16 @@
         <v>121</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1428571428571428</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,45 +1056,69 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L11">
+        <v>28</v>
+      </c>
+      <c r="M11">
+        <v>28</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.06720430107526881</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
         <v>26</v>
       </c>
-      <c r="K11">
-        <v>0.8</v>
-      </c>
-      <c r="L11">
-        <v>96</v>
-      </c>
-      <c r="M11">
-        <v>96</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="E12">
+        <v>0.04</v>
+      </c>
+      <c r="F12">
+        <v>0.96</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>347</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.796875</v>
+        <v>0.7734375</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,21 +1130,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.7746478873239436</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L13">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="M13">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1114,21 +1156,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7264150943396226</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="M14">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1140,21 +1182,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7037037037037037</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1166,21 +1208,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.6984126984126984</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1192,21 +1234,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.68125</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L17">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1218,21 +1260,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6808510638297872</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1244,21 +1286,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6702127659574468</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1270,21 +1312,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1301,16 +1343,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6458333333333334</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1322,21 +1364,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.62</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1348,12 +1390,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
         <v>0.6111111111111112</v>
@@ -1379,16 +1421,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.566579634464752</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L24">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="M24">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1400,21 +1442,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>166</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.5280898876404494</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1426,21 +1468,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.5058823529411764</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L26">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1452,21 +1494,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>168</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.4779661016949153</v>
+        <v>0.5613577023498695</v>
       </c>
       <c r="L27">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="M27">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1478,21 +1520,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.4769230769230769</v>
+        <v>0.525</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1504,21 +1546,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.4383561643835616</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1530,21 +1572,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.4230769230769231</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1556,21 +1598,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.4225941422594142</v>
+        <v>0.4949152542372882</v>
       </c>
       <c r="L31">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="M31">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1582,21 +1624,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.390625</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1608,21 +1650,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.1116279069767442</v>
+        <v>0.4518828451882845</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1634,21 +1676,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>191</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.07932692307692307</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1660,21 +1702,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>383</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.07894736842105263</v>
+        <v>0.4</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1686,21 +1728,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>385</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.07158836689038031</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L36">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1712,21 +1754,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>830</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.0581039755351682</v>
+        <v>0.359375</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1738,47 +1780,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>308</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.04806201550387597</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="L38">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N38">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="O38">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>614</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.04036908881199539</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L39">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1790,21 +1832,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>832</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.03995560488346282</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1816,111 +1858,241 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>865</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.03281762775433662</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="L41">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N41">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>2063</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.02716688227684347</v>
+        <v>0.058165548098434</v>
       </c>
       <c r="L42">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="M42">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="N42">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>3008</v>
+        <v>842</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.01725625539257981</v>
+        <v>0.05216426193118757</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N43">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1139</v>
+        <v>854</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.0150564617314931</v>
+        <v>0.04776579352850539</v>
       </c>
       <c r="L44">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M44">
+        <v>32</v>
+      </c>
+      <c r="N44">
+        <v>0.97</v>
+      </c>
+      <c r="O44">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N44">
+      <c r="K45">
+        <v>0.03563056727613689</v>
+      </c>
+      <c r="L45">
+        <v>76</v>
+      </c>
+      <c r="M45">
+        <v>86</v>
+      </c>
+      <c r="N45">
+        <v>0.88</v>
+      </c>
+      <c r="O45">
+        <v>0.12</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K46">
+        <v>0.03344867358708189</v>
+      </c>
+      <c r="L46">
+        <v>29</v>
+      </c>
+      <c r="M46">
+        <v>29</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47">
+        <v>0.02876535229476406</v>
+      </c>
+      <c r="L47">
+        <v>89</v>
+      </c>
+      <c r="M47">
+        <v>102</v>
+      </c>
+      <c r="N47">
+        <v>0.87</v>
+      </c>
+      <c r="O47">
+        <v>0.13</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48">
+        <v>0.01966873706004141</v>
+      </c>
+      <c r="L48">
+        <v>19</v>
+      </c>
+      <c r="M48">
+        <v>21</v>
+      </c>
+      <c r="N48">
+        <v>0.9</v>
+      </c>
+      <c r="O48">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49">
+        <v>0.01631628490743646</v>
+      </c>
+      <c r="L49">
+        <v>52</v>
+      </c>
+      <c r="M49">
+        <v>66</v>
+      </c>
+      <c r="N49">
         <v>0.79</v>
       </c>
-      <c r="O44">
+      <c r="O49">
         <v>0.21</v>
       </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>3140</v>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>3135</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,27 +43,30 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -76,118 +79,133 @@
     <t>happy</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
+    <t>social</t>
   </si>
   <si>
     <t>store</t>
@@ -196,13 +214,19 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>san</t>
   </si>
   <si>
     <t>co</t>
@@ -212,6 +236,9 @@
   </si>
   <si>
     <t>corona</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -569,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6301369863013698</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5555555555555556</v>
+        <v>0.678082191780822</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -788,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5263157894736842</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.9152542372881356</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3066666666666666</v>
+        <v>0.3003875968992248</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>52</v>
+        <v>361</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2965116279069768</v>
+        <v>0.28</v>
       </c>
       <c r="C8">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>363</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8148148148148148</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2222222222222222</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.7931034482758621</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1879194630872483</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.7804878048780488</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L10">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1071428571428571</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,63 +1115,87 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06720430107526881</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>347</v>
+        <v>226</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>0.7816901408450704</v>
+      </c>
+      <c r="L12">
+        <v>111</v>
+      </c>
+      <c r="M12">
+        <v>111</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.05093833780160858</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>354</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L13">
         <v>28</v>
       </c>
-      <c r="K12">
-        <v>0.7734375</v>
-      </c>
-      <c r="L12">
-        <v>99</v>
-      </c>
-      <c r="M12">
-        <v>99</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13">
-        <v>0.7583333333333333</v>
-      </c>
-      <c r="L13">
-        <v>91</v>
-      </c>
       <c r="M13">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L14">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="M14">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,21 +1233,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.7464788732394366</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L15">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1208,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.7452830188679245</v>
+        <v>0.7421875</v>
       </c>
       <c r="L16">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="M16">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1234,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.7254901960784313</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1260,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.7037037037037037</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1286,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.7021276595744681</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1317,16 +1368,16 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.6458333333333334</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1338,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.6190476190476191</v>
+        <v>0.71875</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1364,21 +1415,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.6176470588235294</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1390,21 +1441,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.6111111111111112</v>
+        <v>0.66</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1416,21 +1467,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.6063829787234043</v>
+        <v>0.625</v>
       </c>
       <c r="L24">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1442,21 +1493,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1468,21 +1519,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.5777777777777777</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1494,21 +1545,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5613577023498695</v>
+        <v>0.5953002610966057</v>
       </c>
       <c r="L27">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="M27">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1520,21 +1571,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.525</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1546,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.5168539325842697</v>
+        <v>0.5264705882352941</v>
       </c>
       <c r="L29">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="M29">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1572,21 +1623,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>43</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.5147058823529411</v>
+        <v>0.475</v>
       </c>
       <c r="L30">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1598,47 +1649,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>165</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L31">
+        <v>42</v>
+      </c>
+      <c r="M31">
+        <v>42</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>47</v>
-      </c>
-      <c r="K31">
-        <v>0.4949152542372882</v>
-      </c>
-      <c r="L31">
-        <v>146</v>
-      </c>
-      <c r="M31">
-        <v>146</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>149</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.4871794871794872</v>
+        <v>0.4711864406779661</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1650,21 +1701,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.4518828451882845</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="L33">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1676,21 +1727,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>131</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.4383561643835616</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1702,21 +1753,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.4</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1728,21 +1779,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.3714285714285714</v>
+        <v>0.4393305439330544</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1754,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>44</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.359375</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1785,36 +1836,36 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.09859154929577464</v>
+        <v>0.4375</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N38">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>192</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.08837209302325581</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L39">
         <v>19</v>
@@ -1832,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.08173076923076923</v>
+        <v>0.4</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1858,21 +1909,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>382</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.07177033492822966</v>
+        <v>0.1732283464566929</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1884,215 +1935,423 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>388</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.058165548098434</v>
+        <v>0.1031175059952038</v>
       </c>
       <c r="L42">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M42">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>842</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.05216426193118757</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="L43">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>854</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.04776579352850539</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L44">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>618</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.03563056727613689</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L45">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="M45">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="N45">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>2057</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K46">
-        <v>0.03344867358708189</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>838</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.02876535229476406</v>
+        <v>0.06935123042505593</v>
       </c>
       <c r="L47">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="M47">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="N47">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>3005</v>
+        <v>832</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>0.01966873706004141</v>
+        <v>0.06222222222222222</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="N48">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="O48">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>947</v>
+        <v>844</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K49">
-        <v>0.01631628490743646</v>
+        <v>0.0581039755351682</v>
       </c>
       <c r="L49">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="N49">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>3135</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K50">
+        <v>0.05536332179930796</v>
+      </c>
+      <c r="L50">
+        <v>48</v>
+      </c>
+      <c r="M50">
+        <v>48</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K51">
+        <v>0.0500701918577445</v>
+      </c>
+      <c r="L51">
+        <v>107</v>
+      </c>
+      <c r="M51">
+        <v>113</v>
+      </c>
+      <c r="N51">
+        <v>0.95</v>
+      </c>
+      <c r="O51">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K52">
+        <v>0.04938271604938271</v>
+      </c>
+      <c r="L52">
+        <v>32</v>
+      </c>
+      <c r="M52">
+        <v>34</v>
+      </c>
+      <c r="N52">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O52">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K53">
+        <v>0.0411522633744856</v>
+      </c>
+      <c r="L53">
+        <v>20</v>
+      </c>
+      <c r="M53">
+        <v>20</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K54">
+        <v>0.03782735208535402</v>
+      </c>
+      <c r="L54">
+        <v>117</v>
+      </c>
+      <c r="M54">
+        <v>131</v>
+      </c>
+      <c r="N54">
+        <v>0.89</v>
+      </c>
+      <c r="O54">
+        <v>0.11</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K55">
+        <v>0.02688728024819028</v>
+      </c>
+      <c r="L55">
+        <v>26</v>
+      </c>
+      <c r="M55">
+        <v>27</v>
+      </c>
+      <c r="N55">
+        <v>0.96</v>
+      </c>
+      <c r="O55">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K56">
+        <v>0.02164366373902133</v>
+      </c>
+      <c r="L56">
+        <v>69</v>
+      </c>
+      <c r="M56">
+        <v>82</v>
+      </c>
+      <c r="N56">
+        <v>0.84</v>
+      </c>
+      <c r="O56">
+        <v>0.16</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K57">
+        <v>0.01725625539257981</v>
+      </c>
+      <c r="L57">
+        <v>20</v>
+      </c>
+      <c r="M57">
+        <v>22</v>
+      </c>
+      <c r="N57">
+        <v>0.91</v>
+      </c>
+      <c r="O57">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1139</v>
       </c>
     </row>
   </sheetData>
